--- a/resources/whist_20170705.xlsx
+++ b/resources/whist_20170705.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\private_code\GamR\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="7485"/>
   </bookViews>
@@ -11,20 +16,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Games</t>
   </si>
   <si>
     <t>Players</t>
-  </si>
-  <si>
-    <t>Dutten</t>
   </si>
   <si>
     <t>Søren</t>
@@ -188,6 +190,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -235,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +487,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,16 +504,16 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4">
         <v>42921</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -516,24 +521,24 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f>SUM(C6:C250)</f>
@@ -564,25 +569,25 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -609,13 +614,13 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -624,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -648,13 +653,13 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <v>7</v>
@@ -687,13 +692,13 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -723,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -756,10 +761,10 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>13</v>
@@ -792,13 +797,13 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>12</v>
@@ -828,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -861,16 +866,16 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -897,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14">
         <v>24</v>
@@ -933,13 +938,13 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <v>12</v>
@@ -966,13 +971,13 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -999,13 +1004,13 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>7</v>
@@ -1032,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>12</v>
@@ -1062,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
@@ -1089,19 +1094,19 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>11</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
@@ -1125,22 +1130,22 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <f>AVERAGE(E6:E250)</f>
@@ -1168,19 +1173,19 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
@@ -1189,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
@@ -1213,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>13</v>
@@ -1243,13 +1248,13 @@
         <v>9</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25">
         <v>13</v>
@@ -1276,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <v>11</v>
@@ -1309,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>7</v>
@@ -1342,13 +1347,13 @@
         <v>9</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>11</v>
@@ -1375,13 +1380,13 @@
         <v>9</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>11</v>
@@ -1408,13 +1413,13 @@
         <v>9</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -1438,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
@@ -1465,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>13</v>
@@ -1498,13 +1503,13 @@
         <v>9</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33">
         <v>12</v>
@@ -1531,13 +1536,13 @@
         <v>9</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>11</v>
@@ -1564,13 +1569,13 @@
         <v>9</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>11</v>
